--- a/Parsing_characteristis_and_photo/parsing_3dplitka/Дон Керам 14.01.25.xlsx
+++ b/Parsing_characteristis_and_photo/parsing_3dplitka/Дон Керам 14.01.25.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FFBC1D6-6E6B-4FB5-8BF3-4CE5F4EEDB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E483F216-3A11-4508-8E9F-611ECB65D223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
     <sheet name="Лист1" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="314">
   <si>
     <t>Австралия</t>
   </si>
@@ -814,6 +811,162 @@
   </si>
   <si>
     <t>Tabil</t>
+  </si>
+  <si>
+    <t>Узбекистан; Иран; Казахстан; ОАЭ; Австралия; Англия; Беларусь; Бельгия; Болгария; Германия; Индия; Испания; Италия; Китай; Литва; Польша; Португалия; Россия; Тунис; Турция; Украина; Хорватия; Чехия; Вьетнам</t>
+  </si>
+  <si>
+    <t>Узбекистанская плитка; Иранская плитка; Казахстанская плитка; Арабская плитка; Австралийская плитка; Английская плитка; Белорусская плитка; Бельгийская плитка; Болгарская плитка; Германская плитка; Индийская плитка; Испанская плитка; Итальянская плитка; Китайская плитка; Литовская плитка; Польская плитка; Португальская плитка; Российская плитка; Тунисская плитка; Турецкая плитка; Украинская плитка; Хорватская плитка; Чешская плитка; Вьетнамская плитка</t>
+  </si>
+  <si>
+    <t>Настенная плитка; Декор; Бордюр; Мозаика; Напольная плитка; Керамогранит; Ступени</t>
+  </si>
+  <si>
+    <t>Фасадная плитка; Тротуарная брусчатка; Декоративный кирпич; Искусственный камень; Натуральный камень; Для туалета; Для фартука; Агломератная плитка; Для улицы; Для гаража; Для коридора; Для лестницы; Для гостиной; Для бани; Для крыльца; Для цоколя; Для террасы; Для печи; Для камина; Декоративная плитка; Настенная плитка; Плитка для ванной; Для кухни; Напольная плитка; Мозаика; Керамогранит; Клинкер (ступени); Плитка для бассейна</t>
+  </si>
+  <si>
+    <t>Бетон; Галька; Гипс; Глина; Кварц; Кварц-винил; Керамика; Керамогранит; Металл; Мрамор; Натуральный гранит; ППК (Полимерно-песчаный композит); Песок; Сланец; Стекло; Травертин; Чугун; Шамотная глина</t>
+  </si>
+  <si>
+    <t>Черно-белый; Мультиколор; Розовый; Белый; Бежевый; Коричневый; Оранжевый; Желтый; Фиолетовый; Красный; Зеленый; Голубой; Синий; Серый; Черный</t>
+  </si>
+  <si>
+    <t>Противоскользящая; Лаппатированная; Полированная; 3D - объемная; Глянцевая; Матовая; Рельефная</t>
+  </si>
+  <si>
+    <t>Глянцевая; Карвинг; Лаппатированная; Матовая; Патинированная; Полированная; Сатинированная</t>
+  </si>
+  <si>
+    <t>С фруктами и едой; С посудой; С текстом; Под песок; Кракелюр; Под бамбук; С одуванчиками; Состаренная (рустик); Фотоплитка (с фотографией); С тюльпанами; С животными; Под дерево; Под кирпич; Под паркет; Фасадная; Зеркальная; Под ламинат; Под мрамор; Под камень; Под бетон; Под мозаику; Моноколор; Ёлочка; Под металл; С рисунком; Под обои; Под оникс; Под кожу; Под травертин; Под гальку; С цветами; С листьями; С дельфинами; Под ткань; С розами; Под цемент; С ракушками; С бабочками; В клетку; В полоску</t>
+  </si>
+  <si>
+    <t>Китайский; Детский; Кэжуал; Рустика; Средиземноморский; Лофт; Пэчворк; Восточный; Прованс; Марокканский; Скандинавский; Арт деко; Арабский; Английский; Классический; Кантри; Хай-тек; Греческий; Модерн; Морской; Японский; Античный; Барокко; Викторианский; Современный; Ретро; Деревенский; Плитка для бассейна</t>
+  </si>
+  <si>
+    <t>Нестандартная; Ромб; Круг; Овал; Шестиугольник (гексагон, соты); Восьмиугольник (октагон); Кабанчик; Квадрат; Прямоугольник; Треугольник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V0; V1; V2;V3;V4 </t>
+  </si>
+  <si>
+    <t>Да;Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R 9; R 10;R 11;R 12;R 13 </t>
+  </si>
+  <si>
+    <t>PEI I;PEI II;PEI III;PEI IV;PEI V</t>
+  </si>
+  <si>
+    <t>Погонный метр; кв. м.; шт.; компл.</t>
+  </si>
+  <si>
+    <t>USD; EUR; RUB</t>
+  </si>
+  <si>
+    <t>URL товара</t>
+  </si>
+  <si>
+    <t>!Внимание - у нас другое! Название фабрики в 3dplitka</t>
+  </si>
+  <si>
+    <t>Наименование товара</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Цветовые оттенки</t>
+  </si>
+  <si>
+    <t>Поверхность</t>
+  </si>
+  <si>
+    <t>Обработка поверхности</t>
+  </si>
+  <si>
+    <t>Количество Лиц</t>
+  </si>
+  <si>
+    <t>Вариативность цвета</t>
+  </si>
+  <si>
+    <t>Морозостойкость</t>
+  </si>
+  <si>
+    <t>Сопротивление скольжению</t>
+  </si>
+  <si>
+    <t>Износостойкость PEI</t>
+  </si>
+  <si>
+    <t>Влагопоглощаемость</t>
+  </si>
+  <si>
+    <t>штук в упаковке</t>
+  </si>
+  <si>
+    <t>кв. м. в упаковке</t>
+  </si>
+  <si>
+    <t>Вес 1 шт., кг.</t>
+  </si>
+  <si>
+    <t>Вес упаковки, кг.</t>
+  </si>
+  <si>
+    <t>Код поставщика</t>
+  </si>
+  <si>
+    <t>Артикул товара</t>
+  </si>
+  <si>
+    <t>единица измерения</t>
+  </si>
+  <si>
+    <t>Цена 3dplitka.ru</t>
+  </si>
+  <si>
+    <t>Картинка товара</t>
+  </si>
+  <si>
+    <t>Варианты выбора</t>
+  </si>
+  <si>
+    <t>Глянцевая; Карвинг; Лаппатированная; Матовая; Патинированная; Полированная; Сатинированная; Натуральная; Ректифицированная</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Основной цвет</t>
+  </si>
+  <si>
+    <t>Отражение поверхности</t>
+  </si>
+  <si>
+    <t>Обработка</t>
+  </si>
+  <si>
+    <t>Имитация</t>
+  </si>
+  <si>
+    <t>Морозоустойчивость</t>
+  </si>
+  <si>
+    <t>В упаковке</t>
+  </si>
+  <si>
+    <t>Кол-во м2 в упаковке</t>
+  </si>
+  <si>
+    <t>Толщина мм.</t>
+  </si>
+  <si>
+    <t>Вес 1 шт.</t>
+  </si>
+  <si>
+    <t>Вес упаковки</t>
   </si>
 </sst>
 </file>
@@ -823,7 +976,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,8 +1157,43 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF21282B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF21282B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,8 +1248,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1234,6 +1446,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1274,7 +1528,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1436,6 +1690,104 @@
     <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="27" fillId="4" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="27" fillId="4" borderId="3" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="12" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="13" borderId="3" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="13" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="13" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="16" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Ввод  2 3 2 2 2 41" xfId="31" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1473,7 +1825,7 @@
     <cellStyle name="Обычный 2 76 34 151 61" xfId="30" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Обычный 3 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1500,6 +1852,26 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1843,12 +2215,1189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AT21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="25" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" style="33" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" style="25" customWidth="1"/>
+    <col min="16" max="25" width="12.42578125" style="25" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="34" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="34" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" style="59" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" style="59" customWidth="1"/>
+    <col min="30" max="32" width="7.28515625" style="59" customWidth="1"/>
+    <col min="33" max="33" width="7.5703125" style="25" customWidth="1"/>
+    <col min="34" max="34" width="11" style="25" customWidth="1"/>
+    <col min="35" max="35" width="6.140625" style="25" customWidth="1"/>
+    <col min="36" max="36" width="7.28515625" style="26" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" style="26" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" style="27" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="28" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" style="29" customWidth="1"/>
+    <col min="41" max="42" width="9.42578125" style="26" customWidth="1"/>
+    <col min="43" max="44" width="9.140625" style="30"/>
+    <col min="45" max="45" width="13.140625" style="30" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="97"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="108"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+    </row>
+    <row r="2" spans="1:46" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M2" s="79"/>
+      <c r="N2" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="S2" s="43"/>
+      <c r="T2" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="U2" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="V2" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="X2" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL2" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="113"/>
+      <c r="AQ2" s="114" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR2" s="113"/>
+    </row>
+    <row r="3" spans="1:46" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="115"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="123"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="78"/>
+      <c r="AQ3" s="125"/>
+      <c r="AR3" s="78"/>
+    </row>
+    <row r="4" spans="1:46" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="115"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="78"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="78"/>
+    </row>
+    <row r="5" spans="1:46" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="126" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="128" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="O5" s="129" t="s">
+        <v>285</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="S5" s="128" t="s">
+        <v>286</v>
+      </c>
+      <c r="T5" s="128" t="s">
+        <v>287</v>
+      </c>
+      <c r="U5" s="128" t="s">
+        <v>288</v>
+      </c>
+      <c r="V5" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="W5" s="128" t="s">
+        <v>289</v>
+      </c>
+      <c r="X5" s="128" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y5" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA5" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB5" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC5" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD5" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE5" s="128" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF5" s="128" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG5" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH5" s="130" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI5" s="130" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ5" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK5" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL5" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM5" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN5" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO5" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP5" s="128" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ5" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR5" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS5" s="128" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT5" s="131" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="110" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M6" s="79"/>
+      <c r="N6" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="S6" s="43"/>
+      <c r="T6" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="U6" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="V6" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="W6" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="X6" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL6" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM6" s="112"/>
+      <c r="AN6" s="113"/>
+      <c r="AQ6" s="114" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR6" s="113"/>
+    </row>
+    <row r="7" spans="1:46" s="147" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="L7" s="138" t="s">
+        <v>304</v>
+      </c>
+      <c r="M7" s="138" t="s">
+        <v>283</v>
+      </c>
+      <c r="N7" s="137" t="s">
+        <v>305</v>
+      </c>
+      <c r="O7" s="138" t="s">
+        <v>306</v>
+      </c>
+      <c r="P7" s="137" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q7" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="137" t="s">
+        <v>183</v>
+      </c>
+      <c r="S7" s="137" t="s">
+        <v>286</v>
+      </c>
+      <c r="T7" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="U7" s="137" t="s">
+        <v>308</v>
+      </c>
+      <c r="V7" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="W7" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="X7" s="137" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y7" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z7" s="137" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA7" s="137" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB7" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD7" s="139" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE7" s="140" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF7" s="140" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG7" s="141"/>
+      <c r="AH7" s="141"/>
+      <c r="AI7" s="135"/>
+      <c r="AJ7" s="142"/>
+      <c r="AK7" s="142"/>
+      <c r="AL7" s="143"/>
+      <c r="AM7" s="144"/>
+      <c r="AN7" s="145"/>
+      <c r="AO7" s="142"/>
+      <c r="AP7" s="142"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="146"/>
+    </row>
+    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AP8"/>
+    </row>
+    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AF9"/>
+      <c r="AP9"/>
+    </row>
+    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AF10"/>
+      <c r="AP10"/>
+    </row>
+    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AF11"/>
+      <c r="AP11"/>
+    </row>
+    <row r="12" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="C12" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="W12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AP12"/>
+    </row>
+    <row r="13" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="C13" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="W13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AP13"/>
+    </row>
+    <row r="14" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="C14" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="W14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AP14"/>
+    </row>
+    <row r="15" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="C15" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AP15"/>
+    </row>
+    <row r="16" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AP16"/>
+    </row>
+    <row r="17" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AP17"/>
+    </row>
+    <row r="18" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AP18"/>
+    </row>
+    <row r="19" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AP19"/>
+    </row>
+    <row r="20" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AP20"/>
+    </row>
+    <row r="21" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AP21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AQ6:AR6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="P2:P4">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
@@ -1858,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Parsing_characteristis_and_photo/parsing_3dplitka/Дон Керам 14.01.25.xlsx
+++ b/Parsing_characteristis_and_photo/parsing_3dplitka/Дон Керам 14.01.25.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\parsing_3dplitka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis2\Parsing_characteristis_and_photo\parsing_3dplitka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE50C8DA-7743-4E70-807B-40B08AE02C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5118D8C-871B-4683-AD7D-AF0DB49325BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3024,7 +3027,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
